--- a/ChartWorld/Infrastructure/Resources/ChartDataWithManyValuesForName.xlsx
+++ b/ChartWorld/Infrastructure/Resources/ChartDataWithManyValuesForName.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\The_p\prog\c#\ChartWorld\ChartWorld\Infrastructure\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilir\OneDrive\Документы\Git Extensions - Repositories\ChartWorld\ChartWorld\Infrastructure\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E48E2-FA11-4197-BC99-6ADD0E7FC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B200044A-1FA9-4EDE-90FE-7C5456D9C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8ee9f288fb341a289024afb056db667" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>ï»¿season</t>
-  </si>
-  <si>
     <t>value1</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Spring</t>
+  </si>
+  <si>
+    <t>season</t>
   </si>
 </sst>
 </file>
@@ -394,33 +394,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="4" width="6.88671875" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -432,9 +430,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>5</v>
